--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Ntf3</t>
+  </si>
+  <si>
+    <t>Ntrk1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ntf3</t>
-  </si>
-  <si>
-    <t>Ntrk1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H2">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I2">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J2">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05351466666666666</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N2">
-        <v>0.160544</v>
+        <v>0.122026</v>
       </c>
       <c r="O2">
-        <v>0.4601248445175601</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P2">
-        <v>0.4601248445175602</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q2">
-        <v>0.3505914027768888</v>
+        <v>0.1545248998526667</v>
       </c>
       <c r="R2">
-        <v>3.155322624991999</v>
+        <v>1.390724098674</v>
       </c>
       <c r="S2">
-        <v>0.2968333472023896</v>
+        <v>0.6059554649745713</v>
       </c>
       <c r="T2">
-        <v>0.2968333472023896</v>
+        <v>0.6059554649745713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.551314333333333</v>
+        <v>3.798983</v>
       </c>
       <c r="H3">
-        <v>19.653943</v>
+        <v>11.396949</v>
       </c>
       <c r="I3">
-        <v>0.6451148003399353</v>
+        <v>0.9354058228349695</v>
       </c>
       <c r="J3">
-        <v>0.6451148003399352</v>
+        <v>0.9354058228349694</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,60 +614,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04067533333333333</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N3">
-        <v>0.122026</v>
+        <v>0.066344</v>
       </c>
       <c r="O3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P3">
-        <v>0.3497308792424494</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q3">
-        <v>0.2664768942797778</v>
+        <v>0.08401324271733333</v>
       </c>
       <c r="R3">
-        <v>2.398292048517999</v>
+        <v>0.7561191844559999</v>
       </c>
       <c r="S3">
-        <v>0.2256165663352028</v>
+        <v>0.3294503578603983</v>
       </c>
       <c r="T3">
-        <v>0.2256165663352027</v>
+        <v>0.3294503578603983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.551314333333333</v>
+        <v>0.2623376666666666</v>
       </c>
       <c r="H4">
-        <v>19.653943</v>
+        <v>0.787013</v>
       </c>
       <c r="I4">
-        <v>0.6451148003399353</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J4">
-        <v>0.6451148003399352</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02211466666666667</v>
+        <v>0.04067533333333333</v>
       </c>
       <c r="N4">
-        <v>0.066344</v>
+        <v>0.122026</v>
       </c>
       <c r="O4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="P4">
-        <v>0.1901442762399904</v>
+        <v>0.6477995434517174</v>
       </c>
       <c r="Q4">
-        <v>0.1448801327102222</v>
+        <v>0.01067067203755555</v>
       </c>
       <c r="R4">
-        <v>1.303921194392</v>
+        <v>0.09603604833799999</v>
       </c>
       <c r="S4">
-        <v>0.1226648868023429</v>
+        <v>0.04184407847714615</v>
       </c>
       <c r="T4">
-        <v>0.1226648868023429</v>
+        <v>0.04184407847714615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0.787013</v>
       </c>
       <c r="I5">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="J5">
-        <v>0.02583266545343768</v>
+        <v>0.06459417716503056</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,338 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05351466666666666</v>
+        <v>0.02211466666666667</v>
       </c>
       <c r="N5">
-        <v>0.160544</v>
+        <v>0.066344</v>
       </c>
       <c r="O5">
-        <v>0.4601248445175601</v>
+        <v>0.3522004565482826</v>
       </c>
       <c r="P5">
-        <v>0.4601248445175602</v>
+        <v>0.3522004565482827</v>
       </c>
       <c r="Q5">
-        <v>0.01403891278577778</v>
+        <v>0.005801510052444444</v>
       </c>
       <c r="R5">
-        <v>0.126350215072</v>
+        <v>0.052213590472</v>
       </c>
       <c r="S5">
-        <v>0.01188625117523716</v>
+        <v>0.02275009868788442</v>
       </c>
       <c r="T5">
-        <v>0.01188625117523716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.2623376666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.787013</v>
-      </c>
-      <c r="I6">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="J6">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.04067533333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.122026</v>
-      </c>
-      <c r="O6">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="P6">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="Q6">
-        <v>0.01067067203755555</v>
-      </c>
-      <c r="R6">
-        <v>0.09603604833799999</v>
-      </c>
-      <c r="S6">
-        <v>0.009034480802206811</v>
-      </c>
-      <c r="T6">
-        <v>0.009034480802206809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.2623376666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.787013</v>
-      </c>
-      <c r="I7">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="J7">
-        <v>0.02583266545343768</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02211466666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.066344</v>
-      </c>
-      <c r="O7">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="P7">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="Q7">
-        <v>0.005801510052444444</v>
-      </c>
-      <c r="R7">
-        <v>0.052213590472</v>
-      </c>
-      <c r="S7">
-        <v>0.004911933475993712</v>
-      </c>
-      <c r="T7">
-        <v>0.004911933475993711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>3.341617</v>
-      </c>
-      <c r="H8">
-        <v>10.024851</v>
-      </c>
-      <c r="I8">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J8">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.05351466666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.160544</v>
-      </c>
-      <c r="O8">
-        <v>0.4601248445175601</v>
-      </c>
-      <c r="P8">
-        <v>0.4601248445175602</v>
-      </c>
-      <c r="Q8">
-        <v>0.1788255198826667</v>
-      </c>
-      <c r="R8">
-        <v>1.609429678944</v>
-      </c>
-      <c r="S8">
-        <v>0.1514052461399335</v>
-      </c>
-      <c r="T8">
-        <v>0.1514052461399335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>3.341617</v>
-      </c>
-      <c r="H9">
-        <v>10.024851</v>
-      </c>
-      <c r="I9">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J9">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.04067533333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.122026</v>
-      </c>
-      <c r="O9">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="P9">
-        <v>0.3497308792424494</v>
-      </c>
-      <c r="Q9">
-        <v>0.1359213853473333</v>
-      </c>
-      <c r="R9">
-        <v>1.223292468126</v>
-      </c>
-      <c r="S9">
-        <v>0.1150798321050399</v>
-      </c>
-      <c r="T9">
-        <v>0.1150798321050399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.341617</v>
-      </c>
-      <c r="H10">
-        <v>10.024851</v>
-      </c>
-      <c r="I10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="J10">
-        <v>0.3290525342066272</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02211466666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.066344</v>
-      </c>
-      <c r="O10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="P10">
-        <v>0.1901442762399904</v>
-      </c>
-      <c r="Q10">
-        <v>0.07389874608266667</v>
-      </c>
-      <c r="R10">
-        <v>0.665088714744</v>
-      </c>
-      <c r="S10">
-        <v>0.06256745596165381</v>
-      </c>
-      <c r="T10">
-        <v>0.06256745596165379</v>
+        <v>0.02275009868788442</v>
       </c>
     </row>
   </sheetData>
